--- a/testcase/testcase_excel.xlsx
+++ b/testcase/testcase_excel.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushuochen/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liushuochen/FusionStudent_lite/testcase/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D1D7B9-C807-A44C-8F26-478861F8941E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19C7D873-7253-8741-8CF1-F349349798EA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="15800" xr2:uid="{BCAEB809-3D5E-8246-8F4D-E43AEF4B8426}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{BCAEB809-3D5E-8246-8F4D-E43AEF4B8426}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="用例汇总" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,6 +22,10 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -65,9 +69,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,9 +392,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA63815C-1A2B-C547-82D4-6085CDB6B9BC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="165" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
